--- a/biology/Botanique/Berthold_Carl_Seemann/Berthold_Carl_Seemann.xlsx
+++ b/biology/Botanique/Berthold_Carl_Seemann/Berthold_Carl_Seemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berthold Carl Seemann est un botaniste prussien, né le 28 février 1825 à Hanovre et mort le 19 octobre 1871 à Javali.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son doctorat à Göttingen et étudie la botanique à Kew en Grande-Bretagne de 1844 à 1846.
 Il participe comme naturaliste, à bord de l’H.M.S. Herald à un voyage sur la côte ouest de l’Amérique dans les mers arctiques de 1847 à 1851. Cette expédition est commandée par le futur amiral Sir Henry Mangles Denham (1800-1887). Plusieurs autres scientifiques y participent : Edward Forbes (1815-1854), Sir Henry Kellett (1807-1875), Thomas Edmonston (1825-1846) et John Goodridge (de) (1808-1865).
@@ -545,7 +559,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard von Regel (1815-1892) lui dédia le genre Seemannia (en) et René Viguier (1880-1931) le genre Seemannaralia (en).
 </t>
